--- a/datastore/20210311/positions.xlsx
+++ b/datastore/20210311/positions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian Kirkpatrick\Projects\quant_local\datastore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian Kirkpatrick\Projects\quant_local\datastore\20210311\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4CC0F5-5451-43EC-B86D-7C1677D20856}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23645405-8597-4435-8404-92C4CA30B10A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13845" yWindow="5580" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="1" r:id="rId1"/>
@@ -983,7 +983,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1052,7 @@
         <v>10.65</v>
       </c>
       <c r="G2" s="1">
-        <v>44271</v>
+        <v>44266</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="J2">
         <f>G2-D2</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1086,7 +1086,7 @@
         <v>62.4</v>
       </c>
       <c r="G3" s="1">
-        <v>44271</v>
+        <v>44267</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J17" si="1">G3-D3</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1120,7 +1120,7 @@
         <v>79.25</v>
       </c>
       <c r="G4" s="1">
-        <v>44271</v>
+        <v>44268</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1154,7 +1154,7 @@
         <v>52.25</v>
       </c>
       <c r="G5" s="1">
-        <v>44271</v>
+        <v>44269</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
         <v>40.51</v>
       </c>
       <c r="G6" s="1">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1256,7 +1256,7 @@
         <v>12.7</v>
       </c>
       <c r="G8" s="1">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
         <v>50.76</v>
       </c>
       <c r="G9" s="1">
-        <v>44271</v>
+        <v>44273</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1324,7 +1324,7 @@
         <v>35.18</v>
       </c>
       <c r="G10" s="1">
-        <v>44271</v>
+        <v>44274</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1358,7 +1358,7 @@
         <v>35.799999999999997</v>
       </c>
       <c r="G11" s="1">
-        <v>44271</v>
+        <v>44275</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1392,7 +1392,7 @@
         <v>36.090000000000003</v>
       </c>
       <c r="G12" s="1">
-        <v>44271</v>
+        <v>44276</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1426,7 +1426,7 @@
         <v>11.71</v>
       </c>
       <c r="G13" s="1">
-        <v>44271</v>
+        <v>44277</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1460,7 +1460,7 @@
         <v>83.51</v>
       </c>
       <c r="G14" s="1">
-        <v>44271</v>
+        <v>44278</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1494,7 +1494,7 @@
         <v>90.35</v>
       </c>
       <c r="G15" s="1">
-        <v>44271</v>
+        <v>44279</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1528,7 +1528,7 @@
         <v>43.14</v>
       </c>
       <c r="G16" s="1">
-        <v>44271</v>
+        <v>44280</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
         <v>72.5</v>
       </c>
       <c r="G17" s="1">
-        <v>44271</v>
+        <v>44281</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
